--- a/MAD/gt_workdir/cs_annotation_abnormal.xlsx
+++ b/MAD/gt_workdir/cs_annotation_abnormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\mad_project\MAD\gt_workdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FEA0F-EDA6-4BE0-8BE7-B0F1CF81D585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3F373-A3C5-485D-82B8-437585B7A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B35E8438-7317-4408-9CEC-581174F07A90}"/>
   </bookViews>
@@ -58,52 +58,52 @@
     <t>framerate</t>
   </si>
   <si>
-    <t>/mnt/c/code/data/fea_cs/caught-on-cctv-khanna-woman-fights-off-chain-snatchers-bravely-1_3VIbwTFR (1).npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/cctv-video-live-chain-snatching-caught-in-cctv-camera-shocking-1_RhulitTp.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/Chain Snatcher in Kerala snatched old lady chain -Chain Robbery Video Chain Snatching Video in India.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/chain-snatching-at-gate-no-1-of-ajnara-genx-noida-ten-news-crime-noida-poli_XyPmR8aJ.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/chain-snatching-incident-that-left-residents-panicked-guntur-samayam-telugu_Oh8lbeEa.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/chain-snatching-viral-video-bthamasha-ka-hamamata-ta_tqazvKY0.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/kanpur-chain-snatching-viral-video-scooty_ienD7clS.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/live-cctv-footage-of-chain-snatching-18-years-old-boys_g6MOYOwR.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/muzaffarpur-chain-snatching_uAXZHsJc.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/videoplayback-1-1_qQya5Esu.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/videoplayback-2-1_WHGlRs7I.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/videoplayback-3_qYWu9mZT (1).npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/videoplayback-5-1_u5efQEGv.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/videoplayback-6_Oa7NmAue (1).npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/viral-cctv-video-rajasthan-ka-bikaner-ma-thanathahaugdha_lEBDxMrU.npy</t>
-  </si>
-  <si>
-    <t>/mnt/c/code/data/fea_cs/watch-delhi-chain-snatching-govt-staffer-shoved-robbed-crime-on-cctv_ReApKPyA.npy</t>
+    <t>/mnt/c/code/data/fea_cs/abnor_1.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_2.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_3.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_4.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_5.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_6.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_7.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_8.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_9.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_10.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_11.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_12.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_13.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_14.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_15.npy</t>
+  </si>
+  <si>
+    <t>/mnt/c/code/data/fea_cs/abnor_16.npy</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7564DCAB-DCA7-4F81-BCCA-E0C297E86A88}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -520,7 +520,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -545,7 +545,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,7 +570,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +620,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,7 +645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2038.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -845,7 +845,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -870,7 +870,7 @@
         <v>839.30000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
